--- a/Tools/CTools/lang-启动语言.xlsx
+++ b/Tools/CTools/lang-启动语言.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>string:uuid</t>
   </si>
@@ -25,13 +25,43 @@
     <t>uuid</t>
   </si>
   <si>
-    <t>cn</t>
+    <t>value</t>
   </si>
   <si>
     <t>Cozy_Tips</t>
   </si>
   <si>
     <t>抵制不良游戏 拒绝盗版游戏 注意自我保护 谨防受骗上当\n适度游戏益脑 沉迷游戏伤身 合理安排时间 享受健康生活</t>
+  </si>
+  <si>
+    <t>Network_Invalid</t>
+  </si>
+  <si>
+    <t>连接网络失败，请检查网络设置。</t>
+  </si>
+  <si>
+    <t>Version_Low</t>
+  </si>
+  <si>
+    <t>客户端版本过低，确定安装新版本？</t>
+  </si>
+  <si>
+    <t>Asset_Request</t>
+  </si>
+  <si>
+    <t>请求资源中...</t>
+  </si>
+  <si>
+    <t>Asset_Decompressing</t>
+  </si>
+  <si>
+    <t>正在解压资源，此过程不消耗您的流量</t>
+  </si>
+  <si>
+    <t>Asset_Updating</t>
+  </si>
+  <si>
+    <t>资源更新中...</t>
   </si>
 </sst>
 </file>
@@ -39,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -54,6 +84,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -61,21 +120,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -84,24 +128,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,6 +158,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -130,68 +191,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,24 +236,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -231,162 +417,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,41 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,9 +441,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,6 +465,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -479,6 +500,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,15 +1029,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
     <col min="2" max="2" width="106.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1033,6 +1063,46 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/CTools/lang-启动语言.xlsx
+++ b/Tools/CTools/lang-启动语言.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>string:uuid</t>
   </si>
@@ -55,13 +55,19 @@
     <t>Asset_Decompressing</t>
   </si>
   <si>
-    <t>正在解压资源，此过程不消耗您的流量</t>
+    <t>正在解压资源，此过程不消耗您的流量，请稍等...</t>
   </si>
   <si>
     <t>Asset_Updating</t>
   </si>
   <si>
     <t>资源更新中...</t>
+  </si>
+  <si>
+    <t>Asset_Loading</t>
+  </si>
+  <si>
+    <t>资源加载中...</t>
   </si>
 </sst>
 </file>
@@ -69,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,13 +91,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,9 +125,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,11 +164,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,22 +194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -191,37 +203,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,17 +445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -461,6 +456,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,9 +510,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,13 +1035,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
     <col min="2" max="2" width="106.375" customWidth="1"/>
@@ -1105,6 +1111,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
